--- a/Assets/StreamingAssets/2_Canteen_Garden_Training.xlsx
+++ b/Assets/StreamingAssets/2_Canteen_Garden_Training.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544DE12E-52DC-684B-A8E1-67F7A994EC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0B4E7E-BBBC-EF40-A051-E0078298977C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="100">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Master, this young lady’s skills seem quite impressive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yao-Astonished</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,14 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Yaochong, you’re being too hasty.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Look at the way she swings the weapon—when it cuts through the air like a feather, it means she’s not applying power correctly.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The force isn’t coming from the waist, but is simply brute strength from the arms.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,10 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I see. Master, you’re amazing—you can spot these details just from a few moves.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yao-Regular</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,10 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>May I ask the young lady’s name?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -221,22 +201,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I’m Li Chen, the best martial artist in this entire manor.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chen-Smile3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>My apologies, Miss Li—you must be the top disciple of the manor.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>top disciple? That’s only because there are just two guards left in Qingliu Manor now.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chen-Smile2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,10 +213,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(No wonder we’ve walked around so long and seen so few people. The place has been eerily quiet.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Who would have thought such a grand manor would be so sparsely populated?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,26 +221,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enough chatting—who are you anyway?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chen-Regular</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I’m Di Renjie, and this is my page, Yao Chong.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>We came from Luoyang and passed through here on our way to Pengze County.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Luoyang, huh? Since it’s the capital, there must be many martial arts masters there.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chen-Thinking</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -309,18 +261,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hello</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ran-Regular</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hello—may I ask if you’re a physician?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ran</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -333,14 +277,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I practice medicine in the town at the foot of the mountain. I came up a few days ago for a consultation.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Are you familiar with the manor’s master?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -368,9 +304,6 @@
     <t>Yao</t>
   </si>
   <si>
-    <t>Master, it’s getting late—shall we head back and rest?</t>
-  </si>
-  <si>
     <t>Yao-Pity</t>
   </si>
   <si>
@@ -405,6 +338,89 @@
   </si>
   <si>
     <t>Ladder1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That’s only because there are just two guards left in Qingliu Manor now.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chen-Smile2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luoyang, huh? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Since it’s the capital, there must be many martial arts masters there.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I came up a few days ago for a consultation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sir, this young girl’s skills seem quite impressive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yao, you’re being too hasty.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Look at the way she swings the weapon——when it cuts through the air like a feather, it means she’s not applying power correctly.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I see. You’re amazing——you can spot these details just from a few moves.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>May I ask your name, please?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I’m Chen, the best martial artist in this entire manor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My apologies, you must be the top disciple of the manor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Top disciple? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(No wonder we’ve walked around so long and seen so few people.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enough chatting——who are you anyway?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I’m Judge Dee, and this is my student, Yao.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello——may I ask if you’re a physician?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I practice medicine in the JiuJiang county at the foot of the mountain. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you familiar with the Lord?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sir it’s getting late—shall we head back and rest?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,7 +502,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -509,6 +525,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -845,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F43"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -915,7 +934,7 @@
     </row>
     <row r="2" spans="1:16" ht="51">
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -963,10 +982,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
         <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -984,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="17">
@@ -992,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -1015,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1038,10 +1057,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -1061,10 +1080,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -1084,10 +1103,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -1100,15 +1119,13 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:16" ht="34">
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -1123,12 +1140,12 @@
         <v>500</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="34">
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1145,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1162,13 +1179,13 @@
     </row>
     <row r="14" spans="1:16" ht="17">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -1182,13 +1199,13 @@
     </row>
     <row r="15" spans="1:16" ht="17">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -1205,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -1220,15 +1237,15 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="34">
+    <row r="17" spans="1:12" ht="17">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -1243,8 +1260,14 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" ht="34">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
@@ -1252,90 +1275,75 @@
       <c r="E18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="51">
-      <c r="A19" s="4"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" ht="34">
       <c r="B19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
         <v>15</v>
       </c>
       <c r="E19" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12" ht="34">
-      <c r="A20" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" ht="34">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="B21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H21" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="17">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17">
       <c r="A22" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -1346,16 +1354,22 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" ht="34">
+      <c r="J22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="17">
       <c r="A23" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -1375,13 +1389,13 @@
     </row>
     <row r="24" spans="1:12" ht="34">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
@@ -1398,13 +1412,13 @@
     </row>
     <row r="25" spans="1:12" ht="17">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -1420,8 +1434,14 @@
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" ht="34">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
       <c r="B26" s="1" t="s">
-        <v>62</v>
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
@@ -1429,18 +1449,22 @@
       <c r="E26" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" ht="34">
+    <row r="27" spans="1:12" ht="17">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
@@ -1448,13 +1472,16 @@
       <c r="E27" t="s">
         <v>25</v>
       </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" ht="34">
       <c r="B28" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
@@ -1462,15 +1489,18 @@
       <c r="E28" t="s">
         <v>25</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="G28" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" ht="34">
       <c r="B29" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
@@ -1478,10 +1508,13 @@
       <c r="E29" t="s">
         <v>25</v>
       </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" ht="34">
       <c r="B30" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
@@ -1489,10 +1522,15 @@
       <c r="E30" t="s">
         <v>25</v>
       </c>
+      <c r="J30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12" ht="34">
       <c r="B31" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
@@ -1501,87 +1539,69 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="17">
-      <c r="A32" t="s">
-        <v>81</v>
-      </c>
+    <row r="32" spans="1:12" ht="34">
       <c r="B32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>95</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K32" s="2">
-        <v>500</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="17">
-      <c r="A33" t="s">
-        <v>1</v>
-      </c>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="34">
       <c r="B33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>94</v>
-      </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="34" spans="1:12" ht="17">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>94</v>
-      </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="1:12" ht="34">
+        <v>78</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="2">
+        <v>500</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="17">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -1589,39 +1609,39 @@
     </row>
     <row r="36" spans="1:12" ht="17">
       <c r="A36" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" ht="17">
+    <row r="37" spans="1:12" ht="34">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -1629,19 +1649,19 @@
     </row>
     <row r="38" spans="1:12" ht="17">
       <c r="A38" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -1649,122 +1669,182 @@
     </row>
     <row r="39" spans="1:12" ht="17">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" ht="34">
+    <row r="40" spans="1:12" ht="17">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
       <c r="B40" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
+      </c>
+      <c r="C40" t="s">
+        <v>59</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>94</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" ht="34">
+    <row r="41" spans="1:12" ht="17">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
       <c r="B41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>77</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" ht="17">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>77</v>
+      </c>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" ht="34">
+      <c r="B43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>77</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" ht="34">
+      <c r="B44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" t="s">
-        <v>94</v>
-      </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="K42" s="6">
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" t="s">
+        <v>77</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K45" s="6">
         <v>500</v>
       </c>
-      <c r="L42" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" t="s">
-        <v>94</v>
-      </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
+      <c r="L45" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" t="s">
+        <v>77</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/StreamingAssets/2_Canteen_Garden_Training.xlsx
+++ b/Assets/StreamingAssets/2_Canteen_Garden_Training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0B4E7E-BBBC-EF40-A051-E0078298977C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394E30D3-AAE2-5541-B6DA-61DAE0191583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -352,10 +352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Since it’s the capital, there must be many martial arts masters there.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I came up a few days ago for a consultation.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -422,6 +418,9 @@
   <si>
     <t>Sir it’s getting late—shall we head back and rest?</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Since it’s the capital, there must be many martial arts Lords there.</t>
   </si>
 </sst>
 </file>
@@ -502,7 +501,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -525,9 +524,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -982,7 +978,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -1011,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -1034,7 +1030,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1103,7 +1099,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -1162,7 +1158,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1202,7 +1198,7 @@
         <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -1222,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -1242,7 +1238,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -1275,9 +1271,6 @@
       <c r="E18" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
     </row>
     <row r="19" spans="1:12" ht="34">
       <c r="B19" s="1" t="s">
@@ -1293,7 +1286,7 @@
     <row r="20" spans="1:12" ht="34">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
@@ -1340,7 +1333,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
         <v>42</v>
@@ -1369,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -1438,7 +1431,7 @@
         <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
         <v>48</v>
@@ -1566,7 +1559,7 @@
         <v>65</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
         <v>56</v>
@@ -1592,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
@@ -1632,7 +1625,7 @@
         <v>57</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s">
         <v>59</v>
@@ -1652,7 +1645,7 @@
         <v>57</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
         <v>56</v>
@@ -1672,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -1779,7 +1772,7 @@
         <v>66</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>67</v>
